--- a/database/suicide.xlsx
+++ b/database/suicide.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Work\TETRIS\capstone_project\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288BF603-C73F-4AFE-9228-DDBD00E49F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB642A5-0183-439C-9FFE-62FE6D9CB08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4D97AB29-D675-4CB6-926F-65CEAC253D72}"/>
   </bookViews>
@@ -1767,8 +1767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC463F4-7AE3-41B6-B5FC-18F97CF21832}">
   <dimension ref="A1:X218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92:X92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:X218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
